--- a/docs/BOM/ProMicro_LIPO.xlsx
+++ b/docs/BOM/ProMicro_LIPO.xlsx
@@ -367,7 +367,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 18:43:16 2020</t>
+    <t>Fri Aug 14 19:00:31 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
